--- a/pybron/rws_ketentest/data/Mapping en definitie BRO GMW.xlsx
+++ b/pybron/rws_ketentest/data/Mapping en definitie BRO GMW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\RWS Ketentest\basis-python-project\rws_ketentest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{403C53DD-B9CB-47ED-AC3C-3DA4734E36B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE52A5-661D-40F0-8AF9-16885E84525C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,9 +465,6 @@
     <t>Afgeleid als [WellTopLevel - FilterTopLevel]</t>
   </si>
   <si>
-    <t xml:space="preserve">sedSumpLength          </t>
-  </si>
-  <si>
     <t>[CoördinatePair]</t>
   </si>
   <si>
@@ -717,9 +714,6 @@
     <t>referentiestelsel</t>
   </si>
   <si>
-    <t xml:space="preserve">methode locatiebepaling </t>
-  </si>
-  <si>
     <t>lokaal verticaal referentiepunt</t>
   </si>
   <si>
@@ -783,12 +777,6 @@
     <t>elektrodepositie</t>
   </si>
   <si>
-    <t xml:space="preserve">elektrodestatus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">aanvulmateriaal buis </t>
-  </si>
-  <si>
     <t>lijm</t>
   </si>
   <si>
@@ -798,9 +786,6 @@
     <t>filterlengte</t>
   </si>
   <si>
-    <t xml:space="preserve">kousmateriaal </t>
-  </si>
-  <si>
     <t>zandvanglengte</t>
   </si>
   <si>
@@ -982,6 +967,21 @@
   </si>
   <si>
     <t>BRO Identificatie</t>
+  </si>
+  <si>
+    <t>methode locatiebepaling</t>
+  </si>
+  <si>
+    <t>aanvulmateriaal buis</t>
+  </si>
+  <si>
+    <t>kousmateriaal</t>
+  </si>
+  <si>
+    <t>elektrodestatus</t>
+  </si>
+  <si>
+    <t>sedSumpLength</t>
   </si>
 </sst>
 </file>
@@ -1416,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="M33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,61 +1443,61 @@
   <sheetData>
     <row r="1" spans="1:20" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>208</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>3</v>
@@ -1533,16 +1533,16 @@
         <v>90</v>
       </c>
       <c r="O2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>187</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="S2" t="s">
         <v>85</v>
@@ -1581,13 +1581,13 @@
         <v>129</v>
       </c>
       <c r="P3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>187</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="S3" t="s">
         <v>85</v>
@@ -1626,13 +1626,13 @@
         <v>105</v>
       </c>
       <c r="P4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>187</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="S4" t="s">
         <v>85</v>
@@ -1671,10 +1671,10 @@
         <v>105</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>108</v>
@@ -1683,7 +1683,7 @@
         <v>85</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1704,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P6" t="s">
         <v>102</v>
@@ -1746,10 +1746,10 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
@@ -1761,10 +1761,10 @@
         <v>85</v>
       </c>
       <c r="N7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="O7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P7" t="s">
         <v>104</v>
@@ -1797,10 +1797,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
@@ -1812,7 +1812,7 @@
         <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="O8" t="s">
         <v>103</v>
@@ -1824,7 +1824,7 @@
         <v>92</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S8" t="s">
         <v>85</v>
@@ -1845,10 +1845,10 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
@@ -1860,16 +1860,16 @@
         <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="O9" t="s">
+        <v>300</v>
+      </c>
+      <c r="P9" t="s">
         <v>305</v>
       </c>
-      <c r="P9" t="s">
-        <v>310</v>
-      </c>
       <c r="Q9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>112</v>
@@ -1895,10 +1895,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J10" s="16">
         <v>1</v>
@@ -1910,16 +1910,16 @@
         <v>85</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="O10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>107</v>
@@ -1928,7 +1928,7 @@
         <v>84</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1937,43 +1937,43 @@
       </c>
       <c r="B11"/>
       <c r="C11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" t="s">
+        <v>261</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" t="s">
         <v>262</v>
       </c>
-      <c r="D11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F11" t="s">
-        <v>265</v>
-      </c>
-      <c r="H11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" t="s">
-        <v>267</v>
-      </c>
       <c r="O11" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P11" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Q11" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="R11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S11" t="s">
         <v>85</v>
@@ -2019,13 +2019,13 @@
       </c>
       <c r="N12"/>
       <c r="O12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P12" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q12" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>108</v>
@@ -2034,7 +2034,7 @@
         <v>85</v>
       </c>
       <c r="T12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -2043,19 +2043,19 @@
       </c>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" t="s">
         <v>263</v>
       </c>
-      <c r="E13" t="s">
-        <v>268</v>
-      </c>
       <c r="F13" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H13" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J13" s="6">
         <v>1</v>
@@ -2067,16 +2067,16 @@
         <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="O13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R13" t="s">
         <v>107</v>
@@ -2091,19 +2091,19 @@
       </c>
       <c r="B14"/>
       <c r="C14" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E14" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H14" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
@@ -2115,25 +2115,25 @@
         <v>85</v>
       </c>
       <c r="N14" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S14" t="s">
         <v>84</v>
       </c>
       <c r="T14" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -2142,19 +2142,19 @@
       </c>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H15" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J15" s="6">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>85</v>
       </c>
       <c r="N15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S15" t="s">
         <v>84</v>
@@ -2190,19 +2190,19 @@
       </c>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F16" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J16" s="6">
         <v>1</v>
@@ -2214,16 +2214,16 @@
         <v>85</v>
       </c>
       <c r="N16" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="O16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R16" t="s">
         <v>107</v>
@@ -2238,19 +2238,19 @@
       </c>
       <c r="B17"/>
       <c r="C17" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E17" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F17" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H17" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J17" s="6">
         <v>0</v>
@@ -2262,19 +2262,19 @@
         <v>85</v>
       </c>
       <c r="N17" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S17" t="s">
         <v>84</v>
@@ -2286,19 +2286,19 @@
       </c>
       <c r="B18"/>
       <c r="C18" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D18" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E18" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F18" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H18" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J18" s="6">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>85</v>
       </c>
       <c r="N18" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O18" t="s">
         <v>10</v>
@@ -2334,19 +2334,19 @@
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E19" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F19" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J19" s="6">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>85</v>
       </c>
       <c r="N19" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="O19" t="s">
         <v>10</v>
@@ -2370,7 +2370,7 @@
         <v>10</v>
       </c>
       <c r="R19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S19" t="s">
         <v>90</v>
@@ -2382,19 +2382,19 @@
       </c>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D20" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H20" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J20" s="6">
         <v>1</v>
@@ -2406,7 +2406,7 @@
         <v>85</v>
       </c>
       <c r="N20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="O20" t="s">
         <v>10</v>
@@ -2430,19 +2430,19 @@
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D21" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F21" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H21" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J21" s="6">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>85</v>
       </c>
       <c r="N21" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="O21" t="s">
         <v>10</v>
@@ -2466,7 +2466,7 @@
         <v>10</v>
       </c>
       <c r="R21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S21" t="s">
         <v>90</v>
@@ -2478,19 +2478,19 @@
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E22" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F22" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H22" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J22" s="6">
         <v>1</v>
@@ -2502,7 +2502,7 @@
         <v>85</v>
       </c>
       <c r="N22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="O22" t="s">
         <v>10</v>
@@ -2525,19 +2525,19 @@
         <v>14</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J23" s="16">
         <v>0</v>
@@ -2549,7 +2549,7 @@
         <v>85</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>10</v>
@@ -2561,7 +2561,7 @@
         <v>10</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>90</v>
@@ -2594,13 +2594,13 @@
         <v>84</v>
       </c>
       <c r="O24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>109</v>
@@ -2624,10 +2624,10 @@
         <v>20</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2648,7 +2648,7 @@
         <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>107</v>
@@ -2669,10 +2669,10 @@
         <v>20</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2714,10 +2714,10 @@
         <v>20</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2777,13 +2777,13 @@
         <v>84</v>
       </c>
       <c r="O28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>109</v>
@@ -2807,10 +2807,10 @@
         <v>20</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2825,13 +2825,13 @@
         <v>85</v>
       </c>
       <c r="O29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>108</v>
@@ -2855,10 +2855,10 @@
         <v>20</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2873,13 +2873,13 @@
         <v>85</v>
       </c>
       <c r="O30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>109</v>
@@ -2903,10 +2903,10 @@
         <v>20</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2924,10 +2924,10 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q31" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>107</v>
@@ -2949,7 +2949,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>25</v>
@@ -2994,10 +2994,10 @@
         <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3012,7 +3012,7 @@
         <v>85</v>
       </c>
       <c r="O33" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P33" t="s">
         <v>119</v>
@@ -3042,10 +3042,10 @@
         <v>20</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3090,10 +3090,10 @@
         <v>20</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3114,10 +3114,10 @@
         <v>103</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R35" s="6" t="s">
         <v>112</v>
@@ -3126,7 +3126,7 @@
         <v>85</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3140,10 +3140,10 @@
         <v>20</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -3189,10 +3189,10 @@
         <v>13</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -3207,22 +3207,22 @@
         <v>85</v>
       </c>
       <c r="O37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S37" t="s">
         <v>85</v>
       </c>
       <c r="T37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -3237,10 +3237,10 @@
         <v>13</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -3255,16 +3255,16 @@
         <v>85</v>
       </c>
       <c r="O38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S38" t="s">
         <v>85</v>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -3288,7 +3288,7 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J39" s="6">
         <v>0</v>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B40"/>
       <c r="C40" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
@@ -3333,7 +3333,7 @@
         <v>18</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3357,7 +3357,7 @@
         <v>121</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S40" t="s">
         <v>85</v>
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J41" s="6">
         <v>1</v>
@@ -3393,22 +3393,22 @@
         <v>85</v>
       </c>
       <c r="O41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S41" t="s">
         <v>85</v>
       </c>
       <c r="T41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -3426,7 +3426,7 @@
         <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J42" s="6">
         <v>1</v>
@@ -3438,13 +3438,13 @@
         <v>85</v>
       </c>
       <c r="O42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>107</v>
@@ -3471,7 +3471,7 @@
         <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
@@ -3513,7 +3513,7 @@
         <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J44" s="6">
         <v>1</v>
@@ -3525,13 +3525,13 @@
         <v>84</v>
       </c>
       <c r="O44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>107</v>
@@ -3558,7 +3558,7 @@
         <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J45" s="6">
         <v>1</v>
@@ -3570,13 +3570,13 @@
         <v>84</v>
       </c>
       <c r="O45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>99</v>
@@ -3603,7 +3603,7 @@
         <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J46" s="6">
         <v>1</v>
@@ -3615,13 +3615,13 @@
         <v>84</v>
       </c>
       <c r="O46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>107</v>
@@ -3648,7 +3648,7 @@
         <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J47" s="6">
         <v>1</v>
@@ -3692,7 +3692,7 @@
         <v>40</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J48" s="16">
         <v>1</v>
@@ -3738,7 +3738,7 @@
         <v>43</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3756,10 +3756,10 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>108</v>
@@ -3783,7 +3783,7 @@
         <v>44</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3828,7 +3828,7 @@
         <v>45</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -3852,7 +3852,7 @@
         <v>132</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S51" t="s">
         <v>85</v>
@@ -3873,7 +3873,7 @@
         <v>46</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -3888,13 +3888,13 @@
         <v>85</v>
       </c>
       <c r="O52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>109</v>
@@ -3921,7 +3921,7 @@
         <v>47</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -4017,7 +4017,7 @@
         <v>48</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -4065,7 +4065,7 @@
         <v>49</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -4092,7 +4092,7 @@
         <v>135</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S56" t="s">
         <v>85</v>
@@ -4113,7 +4113,7 @@
         <v>50</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -4164,7 +4164,7 @@
         <v>52</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -4212,7 +4212,7 @@
         <v>53</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -4233,10 +4233,10 @@
         <v>129</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>107</v>
@@ -4259,7 +4259,7 @@
         <v>97</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -4290,7 +4290,7 @@
         <v>84</v>
       </c>
       <c r="T60" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -4308,7 +4308,7 @@
         <v>56</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -4356,7 +4356,7 @@
         <v>98</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -4401,7 +4401,7 @@
         <v>59</v>
       </c>
       <c r="F63" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J63" s="6">
         <v>1</v>
@@ -4446,7 +4446,7 @@
         <v>60</v>
       </c>
       <c r="F64" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J64" s="6">
         <v>1</v>
@@ -4491,7 +4491,7 @@
         <v>61</v>
       </c>
       <c r="F65" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J65" s="6">
         <v>1</v>
@@ -4538,7 +4538,7 @@
         <v>62</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>251</v>
+        <v>316</v>
       </c>
       <c r="J66" s="16">
         <v>1</v>
@@ -4587,7 +4587,7 @@
         <v>65</v>
       </c>
       <c r="F67" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="J67" s="6">
         <v>1</v>
@@ -4629,7 +4629,7 @@
         <v>66</v>
       </c>
       <c r="F68" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J68" s="6">
         <v>1</v>
@@ -4674,7 +4674,7 @@
         <v>67</v>
       </c>
       <c r="F69" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J69" s="6">
         <v>1</v>
@@ -4719,7 +4719,7 @@
         <v>70</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -4734,13 +4734,13 @@
         <v>85</v>
       </c>
       <c r="O70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>99</v>
@@ -4767,7 +4767,7 @@
         <v>71</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -4911,13 +4911,13 @@
         <v>85</v>
       </c>
       <c r="O74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>99</v>
@@ -4944,7 +4944,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J75" s="6">
         <v>0</v>
@@ -4959,10 +4959,10 @@
         <v>129</v>
       </c>
       <c r="P75" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="Q75" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="R75" s="1" t="s">
         <v>99</v>
@@ -4986,7 +4986,7 @@
         <v>81</v>
       </c>
       <c r="F76" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J76" s="6">
         <v>0</v>
@@ -5013,7 +5013,7 @@
         <v>84</v>
       </c>
       <c r="T76" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -5031,7 +5031,7 @@
         <v>82</v>
       </c>
       <c r="F77" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J77" s="6">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>84</v>
       </c>
       <c r="T77" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5075,7 +5075,7 @@
         <v>83</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J78" s="20">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>84</v>
       </c>
       <c r="T78" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -5148,13 +5148,13 @@
         <v>105</v>
       </c>
       <c r="P79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R79" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S79" t="s">
         <v>85</v>
@@ -5202,13 +5202,13 @@
         <v>105</v>
       </c>
       <c r="P80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R80" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S80" t="s">
         <v>85</v>
@@ -5256,13 +5256,13 @@
         <v>105</v>
       </c>
       <c r="P81" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>166</v>
+      </c>
+      <c r="R81" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>167</v>
-      </c>
-      <c r="R81" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="S81" t="s">
         <v>85</v>
@@ -5310,10 +5310,10 @@
         <v>129</v>
       </c>
       <c r="P82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R82" s="1" t="s">
         <v>107</v>
@@ -5364,13 +5364,13 @@
         <v>129</v>
       </c>
       <c r="P83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S83" t="s">
         <v>85</v>
@@ -5418,13 +5418,13 @@
         <v>129</v>
       </c>
       <c r="P84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R84" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S84" t="s">
         <v>85</v>
@@ -5472,10 +5472,10 @@
         <v>129</v>
       </c>
       <c r="P85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R85" s="1" t="s">
         <v>107</v>
@@ -5526,10 +5526,10 @@
         <v>129</v>
       </c>
       <c r="P86" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q86" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="R86" t="s">
         <v>113</v>
@@ -5580,10 +5580,10 @@
         <v>103</v>
       </c>
       <c r="P87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R87" t="s">
         <v>99</v>
@@ -5634,10 +5634,10 @@
         <v>103</v>
       </c>
       <c r="P88" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q88" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R88" t="s">
         <v>99</v>
@@ -5688,10 +5688,10 @@
         <v>103</v>
       </c>
       <c r="P89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R89" s="1" t="s">
         <v>107</v>
@@ -5742,10 +5742,10 @@
         <v>103</v>
       </c>
       <c r="P90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R90" s="1" t="s">
         <v>107</v>
@@ -5796,13 +5796,13 @@
         <v>103</v>
       </c>
       <c r="P91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R91" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S91" t="s">
         <v>85</v>
